--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H2">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I2">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J2">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="N2">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="O2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="P2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="Q2">
-        <v>14.7794359364823</v>
+        <v>0.905859198313111</v>
       </c>
       <c r="R2">
-        <v>14.7794359364823</v>
+        <v>8.152732784817999</v>
       </c>
       <c r="S2">
-        <v>0.1649497330640884</v>
+        <v>0.008827375425131045</v>
       </c>
       <c r="T2">
-        <v>0.1649497330640884</v>
+        <v>0.008827375425131045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H3">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I3">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J3">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N3">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="P3">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="Q3">
-        <v>47.86263942832732</v>
+        <v>2.873906656708444</v>
       </c>
       <c r="R3">
-        <v>47.86263942832732</v>
+        <v>25.865159910376</v>
       </c>
       <c r="S3">
-        <v>0.534183417511697</v>
+        <v>0.02800551459077839</v>
       </c>
       <c r="T3">
-        <v>0.534183417511697</v>
+        <v>0.02800551459077838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H4">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I4">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J4">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.905676574132371</v>
+        <v>0.003041</v>
       </c>
       <c r="N4">
-        <v>0.905676574132371</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O4">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="P4">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="Q4">
-        <v>4.93295375374357</v>
+        <v>0.0009922032886666666</v>
       </c>
       <c r="R4">
-        <v>4.93295375374357</v>
+        <v>0.008929829597999999</v>
       </c>
       <c r="S4">
-        <v>0.055055511481933</v>
+        <v>9.668777381099061E-06</v>
       </c>
       <c r="T4">
-        <v>0.055055511481933</v>
+        <v>9.668777381099061E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.06358143134038</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H5">
-        <v>1.06358143134038</v>
+        <v>0.978826</v>
       </c>
       <c r="I5">
-        <v>0.1472708645696187</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J5">
-        <v>0.1472708645696187</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.71346328686015</v>
+        <v>0.003928</v>
       </c>
       <c r="N5">
-        <v>2.71346328686015</v>
+        <v>0.011784</v>
       </c>
       <c r="O5">
-        <v>0.2187114993402867</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="P5">
-        <v>0.2187114993402867</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="Q5">
-        <v>2.88598916652829</v>
+        <v>0.001281609509333333</v>
       </c>
       <c r="R5">
-        <v>2.88598916652829</v>
+        <v>0.011534485584</v>
       </c>
       <c r="S5">
-        <v>0.03220983159916161</v>
+        <v>1.248896992862779E-05</v>
       </c>
       <c r="T5">
-        <v>0.03220983159916161</v>
+        <v>1.248896992862779E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.06358143134038</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H6">
-        <v>1.06358143134038</v>
+        <v>0.978826</v>
       </c>
       <c r="I6">
-        <v>0.1472708645696187</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J6">
-        <v>0.1472708645696187</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.787447332844749</v>
+        <v>0.9921066666666668</v>
       </c>
       <c r="N6">
-        <v>8.787447332844749</v>
+        <v>2.97632</v>
       </c>
       <c r="O6">
-        <v>0.7082888465257989</v>
+        <v>0.0788408337623728</v>
       </c>
       <c r="P6">
-        <v>0.7082888465257989</v>
+        <v>0.07884083376237279</v>
       </c>
       <c r="Q6">
-        <v>9.346165812095222</v>
+        <v>0.3236999333688889</v>
       </c>
       <c r="R6">
-        <v>9.346165812095222</v>
+        <v>2.91329940032</v>
       </c>
       <c r="S6">
-        <v>0.1043103107928724</v>
+        <v>0.003154376355904063</v>
       </c>
       <c r="T6">
-        <v>0.1043103107928724</v>
+        <v>0.003154376355904062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.06358143134038</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H7">
-        <v>1.06358143134038</v>
+        <v>16.419945</v>
       </c>
       <c r="I7">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J7">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905676574132371</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="N7">
-        <v>0.905676574132371</v>
+        <v>8.329093</v>
       </c>
       <c r="O7">
-        <v>0.07299965413391428</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="P7">
-        <v>0.07299965413391428</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="Q7">
-        <v>0.9632607870471589</v>
+        <v>15.19591655109833</v>
       </c>
       <c r="R7">
-        <v>0.9632607870471589</v>
+        <v>136.763248959885</v>
       </c>
       <c r="S7">
-        <v>0.01075072217758469</v>
+        <v>0.1480804749516292</v>
       </c>
       <c r="T7">
-        <v>0.01075072217758469</v>
+        <v>0.1480804749516292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.379637180504762</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H8">
-        <v>0.379637180504762</v>
+        <v>16.419945</v>
       </c>
       <c r="I8">
-        <v>0.05256719809901971</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J8">
-        <v>0.05256719809901971</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.71346328686015</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N8">
-        <v>2.71346328686015</v>
+        <v>26.424676</v>
       </c>
       <c r="O8">
-        <v>0.2187114993402867</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="P8">
-        <v>0.2187114993402867</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="Q8">
-        <v>1.030131551626772</v>
+        <v>48.21019184031333</v>
       </c>
       <c r="R8">
-        <v>1.030131551626772</v>
+        <v>433.8917265628199</v>
       </c>
       <c r="S8">
-        <v>0.01149705071235447</v>
+        <v>0.4697964799436045</v>
       </c>
       <c r="T8">
-        <v>0.01149705071235447</v>
+        <v>0.4697964799436045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.379637180504762</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H9">
-        <v>0.379637180504762</v>
+        <v>16.419945</v>
       </c>
       <c r="I9">
-        <v>0.05256719809901971</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J9">
-        <v>0.05256719809901971</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.787447332844749</v>
+        <v>0.003041</v>
       </c>
       <c r="N9">
-        <v>8.787447332844749</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O9">
-        <v>0.7082888465257989</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="P9">
-        <v>0.7082888465257989</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="Q9">
-        <v>3.336041729275271</v>
+        <v>0.016644350915</v>
       </c>
       <c r="R9">
-        <v>3.336041729275271</v>
+        <v>0.149799158235</v>
       </c>
       <c r="S9">
-        <v>0.03723276010664784</v>
+        <v>0.0001621951121188961</v>
       </c>
       <c r="T9">
-        <v>0.03723276010664784</v>
+        <v>0.0001621951121188961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.379637180504762</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H10">
-        <v>0.379637180504762</v>
+        <v>16.419945</v>
       </c>
       <c r="I10">
-        <v>0.05256719809901971</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J10">
-        <v>0.05256719809901971</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.905676574132371</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.905676574132371</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.07299965413391428</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="P10">
-        <v>0.07299965413391428</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="Q10">
-        <v>0.3438285010528254</v>
+        <v>0.02149918132</v>
       </c>
       <c r="R10">
-        <v>0.3438285010528254</v>
+        <v>0.19349263188</v>
       </c>
       <c r="S10">
-        <v>0.003837387280017395</v>
+        <v>0.0002095042421581796</v>
       </c>
       <c r="T10">
-        <v>0.003837387280017395</v>
+        <v>0.0002095042421581795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.332016261748991</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H11">
-        <v>0.332016261748991</v>
+        <v>16.419945</v>
       </c>
       <c r="I11">
-        <v>0.04597327527364319</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J11">
-        <v>0.04597327527364319</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.71346328686015</v>
+        <v>0.9921066666666668</v>
       </c>
       <c r="N11">
-        <v>2.71346328686015</v>
+        <v>2.97632</v>
       </c>
       <c r="O11">
-        <v>0.2187114993402867</v>
+        <v>0.0788408337623728</v>
       </c>
       <c r="P11">
-        <v>0.2187114993402867</v>
+        <v>0.07884083376237279</v>
       </c>
       <c r="Q11">
-        <v>0.900913936896437</v>
+        <v>5.430112300266667</v>
       </c>
       <c r="R11">
-        <v>0.900913936896437</v>
+        <v>48.8710107024</v>
       </c>
       <c r="S11">
-        <v>0.01005488396468223</v>
+        <v>0.05291511082995868</v>
       </c>
       <c r="T11">
-        <v>0.01005488396468223</v>
+        <v>0.05291511082995867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.332016261748991</v>
+        <v>1.32145</v>
       </c>
       <c r="H12">
-        <v>0.332016261748991</v>
+        <v>3.96435</v>
       </c>
       <c r="I12">
-        <v>0.04597327527364319</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="J12">
-        <v>0.04597327527364319</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.787447332844749</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="N12">
-        <v>8.787447332844749</v>
+        <v>8.329093</v>
       </c>
       <c r="O12">
-        <v>0.7082888465257989</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="P12">
-        <v>0.7082888465257989</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="Q12">
-        <v>2.917575413767255</v>
+        <v>3.668826648283333</v>
       </c>
       <c r="R12">
-        <v>2.917575413767255</v>
+        <v>33.01943983455</v>
       </c>
       <c r="S12">
-        <v>0.03256235811458177</v>
+        <v>0.03575181469088302</v>
       </c>
       <c r="T12">
-        <v>0.03256235811458177</v>
+        <v>0.03575181469088302</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.32145</v>
+      </c>
+      <c r="H13">
+        <v>3.96435</v>
+      </c>
+      <c r="I13">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="J13">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N13">
+        <v>26.424676</v>
+      </c>
+      <c r="O13">
+        <v>0.6999729490580858</v>
+      </c>
+      <c r="P13">
+        <v>0.6999729490580857</v>
+      </c>
+      <c r="Q13">
+        <v>11.63962936673333</v>
+      </c>
+      <c r="R13">
+        <v>104.7566643006</v>
+      </c>
+      <c r="S13">
+        <v>0.1134253296989989</v>
+      </c>
+      <c r="T13">
+        <v>0.1134253296989989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.32145</v>
+      </c>
+      <c r="H14">
+        <v>3.96435</v>
+      </c>
+      <c r="I14">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="J14">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.003041</v>
+      </c>
+      <c r="N14">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="P14">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="Q14">
+        <v>0.00401852945</v>
+      </c>
+      <c r="R14">
+        <v>0.03616676504999999</v>
+      </c>
+      <c r="S14">
+        <v>3.91595826130079E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.915958261300789E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.32145</v>
+      </c>
+      <c r="H15">
+        <v>3.96435</v>
+      </c>
+      <c r="I15">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="J15">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.003928</v>
+      </c>
+      <c r="N15">
+        <v>0.011784</v>
+      </c>
+      <c r="O15">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="P15">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="Q15">
+        <v>0.0051906556</v>
+      </c>
+      <c r="R15">
+        <v>0.0467159004</v>
+      </c>
+      <c r="S15">
+        <v>5.058166409204046E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.058166409204045E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.32145</v>
+      </c>
+      <c r="H16">
+        <v>3.96435</v>
+      </c>
+      <c r="I16">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="J16">
+        <v>0.1620424472854687</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="N16">
+        <v>2.97632</v>
+      </c>
+      <c r="O16">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="P16">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="Q16">
+        <v>1.311019354666667</v>
+      </c>
+      <c r="R16">
+        <v>11.799174192</v>
+      </c>
+      <c r="S16">
+        <v>0.01277556164888169</v>
+      </c>
+      <c r="T16">
+        <v>0.01277556164888169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.332016261748991</v>
-      </c>
-      <c r="H13">
-        <v>0.332016261748991</v>
-      </c>
-      <c r="I13">
-        <v>0.04597327527364319</v>
-      </c>
-      <c r="J13">
-        <v>0.04597327527364319</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.905676574132371</v>
-      </c>
-      <c r="N13">
-        <v>0.905676574132371</v>
-      </c>
-      <c r="O13">
-        <v>0.07299965413391428</v>
-      </c>
-      <c r="P13">
-        <v>0.07299965413391428</v>
-      </c>
-      <c r="Q13">
-        <v>0.3006993504970628</v>
-      </c>
-      <c r="R13">
-        <v>0.3006993504970628</v>
-      </c>
-      <c r="S13">
-        <v>0.003356033194379186</v>
-      </c>
-      <c r="T13">
-        <v>0.003356033194379186</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.640597</v>
+      </c>
+      <c r="H17">
+        <v>1.921791</v>
+      </c>
+      <c r="I17">
+        <v>0.07855303311039341</v>
+      </c>
+      <c r="J17">
+        <v>0.0785530331103934</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.776364333333333</v>
+      </c>
+      <c r="N17">
+        <v>8.329093</v>
+      </c>
+      <c r="O17">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="P17">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="Q17">
+        <v>1.778530662840333</v>
+      </c>
+      <c r="R17">
+        <v>16.006775965563</v>
+      </c>
+      <c r="S17">
+        <v>0.01733134453481826</v>
+      </c>
+      <c r="T17">
+        <v>0.01733134453481826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.640597</v>
+      </c>
+      <c r="H18">
+        <v>1.921791</v>
+      </c>
+      <c r="I18">
+        <v>0.07855303311039341</v>
+      </c>
+      <c r="J18">
+        <v>0.0785530331103934</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N18">
+        <v>26.424676</v>
+      </c>
+      <c r="O18">
+        <v>0.6999729490580858</v>
+      </c>
+      <c r="P18">
+        <v>0.6999729490580857</v>
+      </c>
+      <c r="Q18">
+        <v>5.642522723857333</v>
+      </c>
+      <c r="R18">
+        <v>50.78270451471599</v>
+      </c>
+      <c r="S18">
+        <v>0.05498499824373954</v>
+      </c>
+      <c r="T18">
+        <v>0.05498499824373951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.640597</v>
+      </c>
+      <c r="H19">
+        <v>1.921791</v>
+      </c>
+      <c r="I19">
+        <v>0.07855303311039341</v>
+      </c>
+      <c r="J19">
+        <v>0.0785530331103934</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.003041</v>
+      </c>
+      <c r="N19">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="P19">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="Q19">
+        <v>0.001948055477</v>
+      </c>
+      <c r="R19">
+        <v>0.017532499293</v>
+      </c>
+      <c r="S19">
+        <v>1.898332221661434E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.898332221661434E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.640597</v>
+      </c>
+      <c r="H20">
+        <v>1.921791</v>
+      </c>
+      <c r="I20">
+        <v>0.07855303311039341</v>
+      </c>
+      <c r="J20">
+        <v>0.0785530331103934</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.003928</v>
+      </c>
+      <c r="N20">
+        <v>0.011784</v>
+      </c>
+      <c r="O20">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="P20">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="Q20">
+        <v>0.002516265016</v>
+      </c>
+      <c r="R20">
+        <v>0.022646385144</v>
+      </c>
+      <c r="S20">
+        <v>2.452038463231211E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.45203846323121E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.640597</v>
+      </c>
+      <c r="H21">
+        <v>1.921791</v>
+      </c>
+      <c r="I21">
+        <v>0.07855303311039341</v>
+      </c>
+      <c r="J21">
+        <v>0.0785530331103934</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="N21">
+        <v>2.97632</v>
+      </c>
+      <c r="O21">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="P21">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="Q21">
+        <v>0.6355405543466667</v>
+      </c>
+      <c r="R21">
+        <v>5.71986498912</v>
+      </c>
+      <c r="S21">
+        <v>0.006193186624986693</v>
+      </c>
+      <c r="T21">
+        <v>0.006193186624986692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.179974</v>
+      </c>
+      <c r="I22">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J22">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.776364333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.329093</v>
+      </c>
+      <c r="O22">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="P22">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="Q22">
+        <v>1.092012575953556</v>
+      </c>
+      <c r="R22">
+        <v>9.828113183582001</v>
+      </c>
+      <c r="S22">
+        <v>0.01064139437437663</v>
+      </c>
+      <c r="T22">
+        <v>0.01064139437437663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.179974</v>
+      </c>
+      <c r="I23">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J23">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N23">
+        <v>26.424676</v>
+      </c>
+      <c r="O23">
+        <v>0.6999729490580858</v>
+      </c>
+      <c r="P23">
+        <v>0.6999729490580857</v>
+      </c>
+      <c r="Q23">
+        <v>3.464492293158222</v>
+      </c>
+      <c r="R23">
+        <v>31.180430638424</v>
+      </c>
+      <c r="S23">
+        <v>0.03376062658096449</v>
+      </c>
+      <c r="T23">
+        <v>0.03376062658096448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.179974</v>
+      </c>
+      <c r="I24">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J24">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.003041</v>
+      </c>
+      <c r="N24">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="P24">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="Q24">
+        <v>0.001196100311333333</v>
+      </c>
+      <c r="R24">
+        <v>0.010764902802</v>
+      </c>
+      <c r="S24">
+        <v>1.16557037936109E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.16557037936109E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.179974</v>
+      </c>
+      <c r="I25">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J25">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.003928</v>
+      </c>
+      <c r="N25">
+        <v>0.011784</v>
+      </c>
+      <c r="O25">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="P25">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="Q25">
+        <v>0.001544979290666667</v>
+      </c>
+      <c r="R25">
+        <v>0.013904813616</v>
+      </c>
+      <c r="S25">
+        <v>1.505544376892589E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.505544376892589E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.179974</v>
+      </c>
+      <c r="I26">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J26">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="N26">
+        <v>2.97632</v>
+      </c>
+      <c r="O26">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="P26">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="Q26">
+        <v>0.3902200239644446</v>
+      </c>
+      <c r="R26">
+        <v>3.51198021568</v>
+      </c>
+      <c r="S26">
+        <v>0.003802598302641676</v>
+      </c>
+      <c r="T26">
+        <v>0.003802598302641675</v>
       </c>
     </row>
   </sheetData>
